--- a/Site2_Neofax_Validation.xlsx
+++ b/Site2_Neofax_Validation.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1220" windowWidth="22800" windowHeight="11900" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dose" sheetId="1" r:id="rId1"/>
     <sheet name="Frequency" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dose!$C$1:$C$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Frequency!$AK$1:$AK$77</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -640,229 +644,229 @@
     <t>2019-12-14</t>
   </si>
   <si>
-    <t>yyyxxx.000123</t>
+    <t>yyyxxx.00000123</t>
   </si>
   <si>
-    <t>yyyxxx.000124</t>
+    <t>yyyxxx.00000124</t>
   </si>
   <si>
-    <t>yyyxxx.000125</t>
+    <t>yyyxxx.00000125</t>
   </si>
   <si>
-    <t>yyyxxx.000126</t>
+    <t>yyyxxx.00000126</t>
   </si>
   <si>
-    <t>yyyxxx.000127</t>
+    <t>yyyxxx.00000127</t>
   </si>
   <si>
-    <t>yyyxxx.000128</t>
+    <t>yyyxxx.00000128</t>
   </si>
   <si>
-    <t>yyyxxx.000129</t>
+    <t>yyyxxx.00000129</t>
   </si>
   <si>
-    <t>yyyxxx.000130</t>
+    <t>yyyxxx.00000130</t>
   </si>
   <si>
-    <t>yyyxxx.000131</t>
+    <t>yyyxxx.00000131</t>
   </si>
   <si>
-    <t>yyyxxx.000132</t>
+    <t>yyyxxx.00000132</t>
   </si>
   <si>
-    <t>yyyxxx.000133</t>
+    <t>yyyxxx.00000133</t>
   </si>
   <si>
-    <t>yyyxxx.000134</t>
+    <t>yyyxxx.00000134</t>
   </si>
   <si>
-    <t>yyyxxx.000135</t>
+    <t>yyyxxx.00000135</t>
   </si>
   <si>
-    <t>yyyxxx.000136</t>
+    <t>yyyxxx.00000136</t>
   </si>
   <si>
-    <t>yyyxxx.000137</t>
+    <t>yyyxxx.00000137</t>
   </si>
   <si>
-    <t>yyyxxx.000138</t>
+    <t>yyyxxx.00000138</t>
   </si>
   <si>
-    <t>yyyxxx.000139</t>
+    <t>yyyxxx.00000139</t>
   </si>
   <si>
-    <t>yyyxxx.000140</t>
+    <t>yyyxxx.00000140</t>
   </si>
   <si>
-    <t>yyyxxx.000141</t>
+    <t>yyyxxx.00000141</t>
   </si>
   <si>
-    <t>yyyxxx.000142</t>
+    <t>yyyxxx.00000142</t>
   </si>
   <si>
-    <t>yyyxxx.000143</t>
+    <t>yyyxxx.00000143</t>
   </si>
   <si>
-    <t>yyyxxx.000144</t>
+    <t>yyyxxx.00000144</t>
   </si>
   <si>
-    <t>yyyxxx.000145</t>
+    <t>yyyxxx.00000145</t>
   </si>
   <si>
-    <t>yyyxxx.000146</t>
+    <t>yyyxxx.00000146</t>
   </si>
   <si>
-    <t>yyyxxx.000147</t>
+    <t>yyyxxx.00000147</t>
   </si>
   <si>
-    <t>yyyxxx.000148</t>
+    <t>yyyxxx.00000148</t>
   </si>
   <si>
-    <t>yyyxxx.000149</t>
+    <t>yyyxxx.00000149</t>
   </si>
   <si>
-    <t>yyyxxx.000150</t>
+    <t>yyyxxx.00000150</t>
   </si>
   <si>
-    <t>yyyxxx.000151</t>
+    <t>yyyxxx.00000151</t>
   </si>
   <si>
-    <t>yyyxxx.000152</t>
+    <t>yyyxxx.00000152</t>
   </si>
   <si>
-    <t>yyyxxx.000153</t>
+    <t>yyyxxx.00000153</t>
   </si>
   <si>
-    <t>yyyxxx.000154</t>
+    <t>yyyxxx.00000154</t>
   </si>
   <si>
-    <t>yyyxxx.000155</t>
+    <t>yyyxxx.00000155</t>
   </si>
   <si>
-    <t>yyyxxx.000156</t>
+    <t>yyyxxx.00000156</t>
   </si>
   <si>
-    <t>yyyxxx.000157</t>
+    <t>yyyxxx.00000157</t>
   </si>
   <si>
-    <t>yyyxxx.000158</t>
+    <t>yyyxxx.00000158</t>
   </si>
   <si>
-    <t>yyyxxx.000159</t>
+    <t>yyyxxx.00000159</t>
   </si>
   <si>
-    <t>yyyxxx.000160</t>
+    <t>yyyxxx.00000160</t>
   </si>
   <si>
-    <t>yyyxxx.000161</t>
+    <t>yyyxxx.00000161</t>
   </si>
   <si>
-    <t>yyyxxx.000162</t>
+    <t>yyyxxx.00000162</t>
   </si>
   <si>
-    <t>yyyxxx.000163</t>
+    <t>yyyxxx.00000163</t>
   </si>
   <si>
-    <t>yyyxxx.000164</t>
+    <t>yyyxxx.00000164</t>
   </si>
   <si>
-    <t>yyyxxx.000165</t>
+    <t>yyyxxx.00000165</t>
   </si>
   <si>
-    <t>yyyxxx.000166</t>
+    <t>yyyxxx.00000166</t>
   </si>
   <si>
-    <t>yyyxxx.000167</t>
+    <t>yyyxxx.00000167</t>
   </si>
   <si>
-    <t>yyyxxx.000168</t>
+    <t>yyyxxx.00000168</t>
   </si>
   <si>
-    <t>yyyxxx.000169</t>
+    <t>yyyxxx.00000169</t>
   </si>
   <si>
-    <t>yyyxxx.000170</t>
+    <t>yyyxxx.00000170</t>
   </si>
   <si>
-    <t>yyyxxx.000171</t>
+    <t>yyyxxx.00000171</t>
   </si>
   <si>
-    <t>yyyxxx.000172</t>
+    <t>yyyxxx.00000172</t>
   </si>
   <si>
-    <t>yyyxxx.000173</t>
+    <t>yyyxxx.00000173</t>
   </si>
   <si>
-    <t>yyyxxx.000174</t>
+    <t>yyyxxx.00000174</t>
   </si>
   <si>
-    <t>yyyxxx.000175</t>
+    <t>yyyxxx.00000175</t>
   </si>
   <si>
-    <t>yyyxxx.000176</t>
+    <t>yyyxxx.00000176</t>
   </si>
   <si>
-    <t>yyyxxx.000177</t>
+    <t>yyyxxx.00000177</t>
   </si>
   <si>
-    <t>yyyxxx.000178</t>
+    <t>yyyxxx.00000178</t>
   </si>
   <si>
-    <t>yyyxxx.000179</t>
+    <t>yyyxxx.00000179</t>
   </si>
   <si>
-    <t>yyyxxx.000180</t>
+    <t>yyyxxx.00000180</t>
   </si>
   <si>
-    <t>yyyxxx.000181</t>
+    <t>yyyxxx.00000181</t>
   </si>
   <si>
-    <t>yyyxxx.000182</t>
+    <t>yyyxxx.00000182</t>
   </si>
   <si>
-    <t>yyyxxx.000183</t>
+    <t>yyyxxx.00000183</t>
   </si>
   <si>
-    <t>yyyxxx.000184</t>
+    <t>yyyxxx.00000184</t>
   </si>
   <si>
-    <t>yyyxxx.000185</t>
+    <t>yyyxxx.00000185</t>
   </si>
   <si>
-    <t>yyyxxx.000186</t>
+    <t>yyyxxx.00000186</t>
   </si>
   <si>
-    <t>yyyxxx.000187</t>
+    <t>yyyxxx.00000187</t>
   </si>
   <si>
-    <t>yyyxxx.000188</t>
+    <t>yyyxxx.00000188</t>
   </si>
   <si>
-    <t>yyyxxx.000189</t>
+    <t>yyyxxx.00000189</t>
   </si>
   <si>
-    <t>yyyxxx.000190</t>
+    <t>yyyxxx.00000190</t>
   </si>
   <si>
-    <t>yyyxxx.000191</t>
+    <t>yyyxxx.00000191</t>
   </si>
   <si>
-    <t>yyyxxx.000192</t>
+    <t>yyyxxx.00000192</t>
   </si>
   <si>
-    <t>yyyxxx.000193</t>
+    <t>yyyxxx.00000193</t>
   </si>
   <si>
-    <t>yyyxxx.000194</t>
+    <t>yyyxxx.00000194</t>
   </si>
   <si>
-    <t>yyyxxx.000195</t>
+    <t>yyyxxx.00000195</t>
   </si>
   <si>
-    <t>yyyxxx.000196</t>
+    <t>yyyxxx.00000196</t>
   </si>
   <si>
-    <t>yyyxxx.000197</t>
+    <t>yyyxxx.00000197</t>
   </si>
 </sst>
 </file>
@@ -911,17 +915,149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1254,7 +1390,7 @@
   <dimension ref="A1:CJM77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -15826,7 +15962,7 @@
         <v>1</v>
       </c>
       <c r="AK44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" t="b">
         <v>0</v>
@@ -19626,7 +19762,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" t="b">
         <v>0</v>
@@ -20929,7 +21065,7 @@
         <v>1</v>
       </c>
       <c r="AK74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" t="b">
         <v>0</v>
@@ -21447,7 +21583,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -21461,7 +21596,7 @@
   <dimension ref="A1:CJK77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -35853,7 +35988,7 @@
         <v>1</v>
       </c>
       <c r="AK44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" t="b">
         <v>0</v>
@@ -39590,7 +39725,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66" t="b">
         <v>0</v>
@@ -40890,7 +41025,7 @@
         <v>1</v>
       </c>
       <c r="AK74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL74" t="b">
         <v>0</v>
